--- a/Metadata.xlsx
+++ b/Metadata.xlsx
@@ -5,17 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eslamelassal\Downloads\udacity_data_architect-main\udacity_data_architect-main\4. Data Governance\project_work\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eslamelassal\Downloads\udacity_data_architect-main\udacity_data_architect-main\4. Data Governance\project_work\Data-Governance-at-SneakerPark\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD54444D-A7C3-4B37-B0F4-CDF5E463EC09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D84B657A-8E4E-4E6F-A418-76E3113168D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
-    <sheet name="Standard Naming Conventions (St" sheetId="4" state="hidden" r:id="rId2"/>
-    <sheet name="Business Glossary (Standout)" sheetId="5" state="hidden" r:id="rId3"/>
+    <sheet name="Data Dictionary" sheetId="6" r:id="rId1"/>
+    <sheet name="Business MetaData" sheetId="7" r:id="rId2"/>
+    <sheet name="Data Quality Issues" sheetId="8" r:id="rId3"/>
+    <sheet name="Standard Naming Conventions (St" sheetId="4" state="hidden" r:id="rId4"/>
+    <sheet name="Business Glossary (Standout)" sheetId="5" state="hidden" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -157,7 +159,17 @@
         </r>
       </text>
     </comment>
-    <comment ref="A80" authorId="0" shapeId="0" xr:uid="{96914F8B-D0F1-4BF9-981C-9952A53C8DE9}">
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{96914F8B-D0F1-4BF9-981C-9952A53C8DE9}">
       <text>
         <r>
           <rPr>
@@ -171,7 +183,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B80" authorId="0" shapeId="0" xr:uid="{968E65B8-D83E-4AAA-BD7E-666BFFF65E0B}">
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{968E65B8-D83E-4AAA-BD7E-666BFFF65E0B}">
       <text>
         <r>
           <rPr>
@@ -184,7 +196,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C80" authorId="0" shapeId="0" xr:uid="{C2ED8D10-CBCE-44FC-8765-C00D5D4B6150}">
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{C2ED8D10-CBCE-44FC-8765-C00D5D4B6150}">
       <text>
         <r>
           <rPr>
@@ -197,7 +209,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D80" authorId="0" shapeId="0" xr:uid="{585F8B44-316F-4980-BB47-0A80DEA8E9C7}">
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{585F8B44-316F-4980-BB47-0A80DEA8E9C7}">
       <text>
         <r>
           <rPr>
@@ -210,7 +222,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E80" authorId="0" shapeId="0" xr:uid="{A120DC76-F044-4513-9E7F-2014E34ABC95}">
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{A120DC76-F044-4513-9E7F-2014E34ABC95}">
       <text>
         <r>
           <rPr>
@@ -223,7 +235,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F80" authorId="0" shapeId="0" xr:uid="{890374E5-73EC-45D6-8CED-6B7DD6367E7D}">
+    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{890374E5-73EC-45D6-8CED-6B7DD6367E7D}">
       <text>
         <r>
           <rPr>
@@ -236,7 +248,17 @@
         </r>
       </text>
     </comment>
-    <comment ref="A94" authorId="0" shapeId="0" xr:uid="{03B7E166-C614-439F-BB0E-BB99792B93D8}">
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="A5" authorId="0" shapeId="0" xr:uid="{03B7E166-C614-439F-BB0E-BB99792B93D8}">
       <text>
         <r>
           <rPr>
@@ -250,7 +272,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D94" authorId="0" shapeId="0" xr:uid="{78651A5A-6C59-4E18-9A5C-EF66617F8B7F}">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{78651A5A-6C59-4E18-9A5C-EF66617F8B7F}">
       <text>
         <r>
           <rPr>
@@ -264,7 +286,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E94" authorId="0" shapeId="0" xr:uid="{40DA1DB7-BBAA-4629-9C6D-EC7CB2EEE809}">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{40DA1DB7-BBAA-4629-9C6D-EC7CB2EEE809}">
       <text>
         <r>
           <rPr>
@@ -277,7 +299,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F94" authorId="0" shapeId="0" xr:uid="{CAE662CB-0032-4062-BB5C-D36D5275959C}">
+    <comment ref="F5" authorId="0" shapeId="0" xr:uid="{CAE662CB-0032-4062-BB5C-D36D5275959C}">
       <text>
         <r>
           <rPr>
@@ -291,7 +313,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G94" authorId="0" shapeId="0" xr:uid="{AF66EE3E-AAD7-41AF-9FCC-B64B998149EF}">
+    <comment ref="G5" authorId="0" shapeId="0" xr:uid="{AF66EE3E-AAD7-41AF-9FCC-B64B998149EF}">
       <text>
         <r>
           <rPr>
@@ -305,7 +327,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H94" authorId="0" shapeId="0" xr:uid="{5F09317E-341C-4E68-9028-D6905053DECE}">
+    <comment ref="H5" authorId="0" shapeId="0" xr:uid="{5F09317E-341C-4E68-9028-D6905053DECE}">
       <text>
         <r>
           <rPr>
@@ -319,7 +341,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J94" authorId="0" shapeId="0" xr:uid="{B2D4610E-276B-493D-AEAE-6258A6E1F910}">
+    <comment ref="J5" authorId="0" shapeId="0" xr:uid="{B2D4610E-276B-493D-AEAE-6258A6E1F910}">
       <text>
         <r>
           <rPr>
@@ -336,7 +358,7 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
@@ -373,7 +395,7 @@
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
@@ -411,7 +433,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="254">
   <si>
     <t>Entity</t>
   </si>
@@ -621,9 +643,6 @@
   </si>
   <si>
     <t>date</t>
-  </si>
-  <si>
-    <t>Customer</t>
   </si>
   <si>
     <t>snoeakerpark.usr</t>
@@ -1081,30 +1100,6 @@
     <t>Completeness</t>
   </si>
   <si>
-    <t>op.orders</t>
-  </si>
-  <si>
-    <t>op.orderitems</t>
-  </si>
-  <si>
-    <t>op.ordershipments</t>
-  </si>
-  <si>
-    <t>usr.users</t>
-  </si>
-  <si>
-    <t>usr.creditcards</t>
-  </si>
-  <si>
-    <t>li.listings</t>
-  </si>
-  <si>
-    <t>im.items</t>
-  </si>
-  <si>
-    <t>cs.customerservicerequest</t>
-  </si>
-  <si>
     <t>character (50)</t>
   </si>
   <si>
@@ -1175,13 +1170,40 @@
   </si>
   <si>
     <t>Data Quality Issues</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Ordersitems</t>
+  </si>
+  <si>
+    <t>orderitems</t>
+  </si>
+  <si>
+    <t>Ordershipments</t>
+  </si>
+  <si>
+    <t>Items</t>
+  </si>
+  <si>
+    <t>customerservrequest</t>
+  </si>
+  <si>
+    <t>CustomerServRequest</t>
+  </si>
+  <si>
+    <t>Users</t>
+  </si>
+  <si>
+    <t>Creditcards</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1217,6 +1239,7 @@
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1239,8 +1262,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1281,6 +1310,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -1392,7 +1427,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1422,10 +1457,33 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1438,7 +1496,7 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1451,12 +1509,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1678,10 +1730,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37B95F04-04F8-462C-B899-64D442077A23}">
-  <dimension ref="A1:M98"/>
+  <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A90" sqref="A90:J93"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="A90" sqref="A90:J98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1702,81 +1754,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="28" t="s">
-        <v>252</v>
-      </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
+      <c r="A1" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="28"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="29"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
+      <c r="A5" s="23"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
@@ -1827,7 +1879,7 @@
         <v>45</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>222</v>
+        <v>46</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>47</v>
@@ -1842,7 +1894,7 @@
         <v>14</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I7" s="11">
         <v>29692</v>
@@ -1853,8 +1905,12 @@
       <c r="K7" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
+      <c r="L7" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="M7" s="15" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="8" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
@@ -1864,7 +1920,7 @@
         <v>45</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>222</v>
+        <v>46</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>48</v>
@@ -1879,9 +1935,9 @@
         <v>15</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="I8" s="9">
+        <v>113</v>
+      </c>
+      <c r="I8" s="16">
         <v>7708</v>
       </c>
       <c r="J8" s="14" t="s">
@@ -1891,10 +1947,10 @@
         <v>14</v>
       </c>
       <c r="L8" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="M8" s="14" t="s">
         <v>72</v>
-      </c>
-      <c r="M8" s="14" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15" x14ac:dyDescent="0.25">
@@ -1905,7 +1961,7 @@
         <v>45</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>222</v>
+        <v>46</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>49</v>
@@ -1920,9 +1976,9 @@
         <v>15</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="I9" s="13">
+        <v>114</v>
+      </c>
+      <c r="I9" s="11">
         <v>79220</v>
       </c>
       <c r="J9" s="10" t="s">
@@ -1932,7 +1988,7 @@
         <v>14</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M9" s="10" t="s">
         <v>49</v>
@@ -1946,7 +2002,7 @@
         <v>45</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>222</v>
+        <v>46</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>50</v>
@@ -1961,9 +2017,9 @@
         <v>15</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="I10" s="9">
+        <v>115</v>
+      </c>
+      <c r="I10" s="16">
         <v>15.8</v>
       </c>
       <c r="J10" s="14" t="s">
@@ -1972,8 +2028,12 @@
       <c r="K10" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
+      <c r="L10" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="M10" s="15" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="11" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
@@ -1983,7 +2043,7 @@
         <v>45</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>222</v>
+        <v>46</v>
       </c>
       <c r="D11" s="13" t="s">
         <v>51</v>
@@ -1998,9 +2058,9 @@
         <v>15</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="I11" s="13">
+        <v>116</v>
+      </c>
+      <c r="I11" s="11">
         <v>9</v>
       </c>
       <c r="J11" s="14" t="s">
@@ -2009,8 +2069,12 @@
       <c r="K11" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
+      <c r="L11" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="M11" s="15" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="12" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
@@ -2020,7 +2084,7 @@
         <v>45</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>222</v>
+        <v>46</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>52</v>
@@ -2035,9 +2099,9 @@
         <v>15</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="I12" s="9">
+        <v>117</v>
+      </c>
+      <c r="I12" s="16">
         <v>102.51</v>
       </c>
       <c r="J12" s="14" t="s">
@@ -2046,8 +2110,12 @@
       <c r="K12" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
+      <c r="L12" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="M12" s="15" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="13" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
@@ -2057,13 +2125,13 @@
         <v>45</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>222</v>
+        <v>46</v>
       </c>
       <c r="D13" s="13" t="s">
         <v>53</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>15</v>
@@ -2072,10 +2140,10 @@
         <v>15</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="I13" s="13" t="s">
-        <v>242</v>
+        <v>118</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>233</v>
       </c>
       <c r="J13" s="14" t="s">
         <v>15</v>
@@ -2083,8 +2151,12 @@
       <c r="K13" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
+      <c r="L13" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="M13" s="15" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="14" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
@@ -2094,13 +2166,13 @@
         <v>45</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>222</v>
+        <v>46</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>54</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="F14" s="14" t="s">
         <v>14</v>
@@ -2109,9 +2181,9 @@
         <v>15</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="I14" s="9">
+        <v>119</v>
+      </c>
+      <c r="I14" s="16">
         <v>54601</v>
       </c>
       <c r="J14" s="14" t="s">
@@ -2120,8 +2192,12 @@
       <c r="K14" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
+      <c r="L14" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="M14" s="15" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="15" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
@@ -2131,7 +2207,7 @@
         <v>45</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>222</v>
+        <v>46</v>
       </c>
       <c r="D15" s="13" t="s">
         <v>55</v>
@@ -2146,10 +2222,10 @@
         <v>15</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="I15" s="15" t="s">
-        <v>243</v>
+        <v>120</v>
+      </c>
+      <c r="I15" s="17" t="s">
+        <v>234</v>
       </c>
       <c r="J15" s="14" t="s">
         <v>15</v>
@@ -2157,8 +2233,12 @@
       <c r="K15" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
+      <c r="L15" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="M15" s="15" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="16" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
@@ -2168,13 +2248,13 @@
         <v>45</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>222</v>
+        <v>46</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>56</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="F16" s="14" t="s">
         <v>15</v>
@@ -2183,10 +2263,10 @@
         <v>15</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="I16" s="14" t="s">
-        <v>196</v>
+        <v>121</v>
+      </c>
+      <c r="I16" s="18" t="s">
+        <v>195</v>
       </c>
       <c r="J16" s="14" t="s">
         <v>15</v>
@@ -2194,18 +2274,22 @@
       <c r="K16" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
+      <c r="L16" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="M16" s="15" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="17" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>44</v>
+        <v>246</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>45</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="D17" s="13" t="s">
         <v>47</v>
@@ -2220,9 +2304,9 @@
         <v>14</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="I17" s="13">
+        <v>122</v>
+      </c>
+      <c r="I17" s="11">
         <v>26985</v>
       </c>
       <c r="J17" s="10" t="s">
@@ -2240,13 +2324,13 @@
     </row>
     <row r="18" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>44</v>
+        <v>246</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>45</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>62</v>
@@ -2261,9 +2345,9 @@
         <v>14</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="I18" s="9">
+        <v>123</v>
+      </c>
+      <c r="I18" s="16">
         <v>998839</v>
       </c>
       <c r="J18" s="14" t="s">
@@ -2273,7 +2357,7 @@
         <v>14</v>
       </c>
       <c r="L18" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M18" s="14" t="s">
         <v>62</v>
@@ -2281,13 +2365,13 @@
     </row>
     <row r="19" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
-        <v>44</v>
+        <v>246</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>45</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="D19" s="13" t="s">
         <v>63</v>
@@ -2302,9 +2386,9 @@
         <v>15</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="I19" s="13">
+        <v>124</v>
+      </c>
+      <c r="I19" s="11">
         <v>45</v>
       </c>
       <c r="J19" s="10" t="s">
@@ -2313,18 +2397,22 @@
       <c r="K19" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
+      <c r="L19" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="M19" s="15" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="20" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
-        <v>44</v>
+      <c r="A20" s="9" t="s">
+        <v>248</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>45</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>224</v>
+        <v>64</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>65</v>
@@ -2339,9 +2427,9 @@
         <v>14</v>
       </c>
       <c r="H20" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="I20" s="9">
+        <v>125</v>
+      </c>
+      <c r="I20" s="16">
         <v>797095</v>
       </c>
       <c r="J20" s="14" t="s">
@@ -2350,18 +2438,22 @@
       <c r="K20" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
+      <c r="L20" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="M20" s="15" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="21" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
-        <v>44</v>
+      <c r="A21" s="9" t="s">
+        <v>248</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>45</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>224</v>
+        <v>64</v>
       </c>
       <c r="D21" s="13" t="s">
         <v>47</v>
@@ -2376,9 +2468,9 @@
         <v>14</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="I21" s="13">
+        <v>122</v>
+      </c>
+      <c r="I21" s="11">
         <v>427</v>
       </c>
       <c r="J21" s="10" t="s">
@@ -2391,24 +2483,24 @@
         <v>46</v>
       </c>
       <c r="M21" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
-        <v>44</v>
+      <c r="A22" s="9" t="s">
+        <v>248</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>45</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>224</v>
+        <v>64</v>
       </c>
       <c r="D22" s="9" t="s">
         <v>66</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="F22" s="14" t="s">
         <v>14</v>
@@ -2417,10 +2509,10 @@
         <v>15</v>
       </c>
       <c r="H22" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="I22" s="9" t="s">
-        <v>244</v>
+        <v>126</v>
+      </c>
+      <c r="I22" s="16" t="s">
+        <v>235</v>
       </c>
       <c r="J22" s="14" t="s">
         <v>15</v>
@@ -2428,24 +2520,28 @@
       <c r="K22" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
+      <c r="L22" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="M22" s="15" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="23" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
-        <v>44</v>
+      <c r="A23" s="9" t="s">
+        <v>248</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>45</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>224</v>
+        <v>64</v>
       </c>
       <c r="D23" s="10" t="s">
         <v>67</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="F23" s="10" t="s">
         <v>15</v>
@@ -2454,10 +2550,10 @@
         <v>14</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="I23" s="13" t="s">
-        <v>195</v>
+        <v>127</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>194</v>
       </c>
       <c r="J23" s="14" t="s">
         <v>15</v>
@@ -2465,18 +2561,22 @@
       <c r="K23" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
+      <c r="L23" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="M23" s="15" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="24" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
-        <v>44</v>
+      <c r="A24" s="9" t="s">
+        <v>248</v>
       </c>
       <c r="B24" s="9" t="s">
         <v>45</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>224</v>
+        <v>64</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>68</v>
@@ -2491,10 +2591,10 @@
         <v>15</v>
       </c>
       <c r="H24" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="I24" s="17" t="s">
-        <v>240</v>
+        <v>128</v>
+      </c>
+      <c r="I24" s="19" t="s">
+        <v>231</v>
       </c>
       <c r="J24" s="14" t="s">
         <v>15</v>
@@ -2502,21 +2602,25 @@
       <c r="K24" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
+      <c r="L24" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="M24" s="15" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="25" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="B25" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="C25" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="C25" s="13" t="s">
-        <v>225</v>
-      </c>
       <c r="D25" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E25" s="10" t="s">
         <v>57</v>
@@ -2528,214 +2632,238 @@
         <v>14</v>
       </c>
       <c r="H25" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="I25" s="11">
+        <v>80527</v>
+      </c>
+      <c r="J25" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="K25" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="L25" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="M25" s="15" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="I25" s="13">
-        <v>80527</v>
-      </c>
-      <c r="J25" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="K25" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-    </row>
-    <row r="26" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
+      <c r="I26" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="J26" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="K26" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="L26" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="M26" s="15" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A27" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="B27" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="C27" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="D27" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="J27" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="K27" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="L27" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="M27" s="15" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A28" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H28" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="I28" s="20" t="s">
+        <v>238</v>
+      </c>
+      <c r="J28" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="K28" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="L28" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="M28" s="15" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A29" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="I29" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="J29" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="K29" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="L29" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="M29" s="15" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A30" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="E30" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="D26" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="F26" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="H26" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="I26" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="J26" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="K26" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-    </row>
-    <row r="27" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
+      <c r="F30" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H30" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="I30" s="16">
+        <v>13835</v>
+      </c>
+      <c r="J30" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="K30" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="L30" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="M30" s="15" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A31" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="B31" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="B27" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>230</v>
-      </c>
-      <c r="F27" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="H27" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="I27" s="13" t="s">
-        <v>246</v>
-      </c>
-      <c r="J27" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="K27" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
-    </row>
-    <row r="28" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="F28" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="H28" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="I28" s="18" t="s">
-        <v>247</v>
-      </c>
-      <c r="J28" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="K28" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
-    </row>
-    <row r="29" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>230</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H29" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="I29" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="J29" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="K29" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-    </row>
-    <row r="30" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="D30" s="14" t="s">
+      <c r="C31" s="13" t="s">
         <v>78</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="F30" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="H30" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="I30" s="9">
-        <v>13835</v>
-      </c>
-      <c r="J30" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="K30" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
-    </row>
-    <row r="31" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A31" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>226</v>
       </c>
       <c r="D31" s="10" t="s">
         <v>49</v>
@@ -2750,69 +2878,77 @@
         <v>14</v>
       </c>
       <c r="H31" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="I31" s="11">
+        <v>9467</v>
+      </c>
+      <c r="J31" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="K31" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="L31" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="M31" s="15" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A32" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G32" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H32" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="I31" s="13">
-        <v>9467</v>
-      </c>
-      <c r="J31" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="K31" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="L31" s="13"/>
-      <c r="M31" s="13"/>
-    </row>
-    <row r="32" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A32" s="10" t="s">
+      <c r="I32" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="J32" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="K32" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="L32" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="M32" s="15" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A33" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="B33" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="B32" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="D32" s="14" t="s">
+      <c r="C33" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D33" s="10" t="s">
         <v>80</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="F32" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G32" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="H32" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="I32" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="J32" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="K32" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
-    </row>
-    <row r="33" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A33" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>81</v>
       </c>
       <c r="E33" s="10" t="s">
         <v>69</v>
@@ -2824,10 +2960,10 @@
         <v>15</v>
       </c>
       <c r="H33" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="I33" s="16" t="s">
-        <v>193</v>
+        <v>137</v>
+      </c>
+      <c r="I33" s="21" t="s">
+        <v>192</v>
       </c>
       <c r="J33" s="10" t="s">
         <v>15</v>
@@ -2835,21 +2971,25 @@
       <c r="K33" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="L33" s="13"/>
-      <c r="M33" s="13"/>
+      <c r="L33" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="M33" s="15" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="34" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="B34" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="B34" s="10" t="s">
-        <v>71</v>
-      </c>
       <c r="C34" s="13" t="s">
-        <v>226</v>
+        <v>78</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E34" s="14" t="s">
         <v>57</v>
@@ -2861,9 +3001,9 @@
         <v>15</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="I34" s="9">
+        <v>129</v>
+      </c>
+      <c r="I34" s="16">
         <v>95897</v>
       </c>
       <c r="J34" s="14" t="s">
@@ -2873,21 +3013,21 @@
         <v>14</v>
       </c>
       <c r="L34" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="M34" s="14" t="s">
         <v>72</v>
-      </c>
-      <c r="M34" s="14" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B35" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="C35" s="13" t="s">
         <v>83</v>
-      </c>
-      <c r="C35" s="13" t="s">
-        <v>227</v>
       </c>
       <c r="D35" s="10" t="s">
         <v>62</v>
@@ -2902,9 +3042,9 @@
         <v>14</v>
       </c>
       <c r="H35" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="I35" s="13">
+        <v>123</v>
+      </c>
+      <c r="I35" s="11">
         <v>922399</v>
       </c>
       <c r="J35" s="10" t="s">
@@ -2913,21 +3053,25 @@
       <c r="K35" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="L35" s="13"/>
-      <c r="M35" s="13"/>
+      <c r="L35" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="M35" s="15" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="36" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B36" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="C36" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="C36" s="13" t="s">
-        <v>227</v>
-      </c>
       <c r="D36" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E36" s="14" t="s">
         <v>57</v>
@@ -2939,9 +3083,9 @@
         <v>15</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="I36" s="9">
+        <v>138</v>
+      </c>
+      <c r="I36" s="16">
         <v>25516</v>
       </c>
       <c r="J36" s="14" t="s">
@@ -2951,24 +3095,24 @@
         <v>14</v>
       </c>
       <c r="L36" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="M36" s="14" t="s">
         <v>72</v>
-      </c>
-      <c r="M36" s="14" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B37" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="C37" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="C37" s="13" t="s">
-        <v>227</v>
-      </c>
       <c r="D37" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E37" s="10" t="s">
         <v>57</v>
@@ -2980,9 +3124,9 @@
         <v>14</v>
       </c>
       <c r="H37" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="I37" s="13">
+        <v>139</v>
+      </c>
+      <c r="I37" s="11">
         <v>509</v>
       </c>
       <c r="J37" s="14" t="s">
@@ -2992,27 +3136,27 @@
         <v>14</v>
       </c>
       <c r="L37" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="M37" s="13" t="s">
         <v>99</v>
-      </c>
-      <c r="M37" s="13" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B38" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="C38" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="C38" s="13" t="s">
-        <v>227</v>
-      </c>
       <c r="D38" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="F38" s="14" t="s">
         <v>15</v>
@@ -3021,10 +3165,10 @@
         <v>15</v>
       </c>
       <c r="H38" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="I38" s="14" t="s">
-        <v>185</v>
+        <v>140</v>
+      </c>
+      <c r="I38" s="18" t="s">
+        <v>184</v>
       </c>
       <c r="J38" s="14" t="s">
         <v>15</v>
@@ -3032,24 +3176,28 @@
       <c r="K38" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="L38" s="9"/>
-      <c r="M38" s="9"/>
+      <c r="L38" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="M38" s="15" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="39" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B39" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="C39" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="C39" s="13" t="s">
-        <v>227</v>
-      </c>
       <c r="D39" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="F39" s="10" t="s">
         <v>15</v>
@@ -3058,10 +3206,10 @@
         <v>15</v>
       </c>
       <c r="H39" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="I39" s="13" t="s">
-        <v>248</v>
+        <v>141</v>
+      </c>
+      <c r="I39" s="11" t="s">
+        <v>239</v>
       </c>
       <c r="J39" s="14" t="s">
         <v>15</v>
@@ -3069,24 +3217,28 @@
       <c r="K39" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="L39" s="13"/>
-      <c r="M39" s="13"/>
+      <c r="L39" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="M39" s="15" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="40" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B40" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="C40" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="C40" s="13" t="s">
-        <v>227</v>
-      </c>
       <c r="D40" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="F40" s="14" t="s">
         <v>15</v>
@@ -3095,10 +3247,10 @@
         <v>15</v>
       </c>
       <c r="H40" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="I40" s="14" t="s">
-        <v>186</v>
+        <v>142</v>
+      </c>
+      <c r="I40" s="18" t="s">
+        <v>185</v>
       </c>
       <c r="J40" s="14" t="s">
         <v>15</v>
@@ -3106,24 +3258,28 @@
       <c r="K40" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="L40" s="9"/>
-      <c r="M40" s="9"/>
+      <c r="L40" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="M40" s="15" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="41" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B41" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="C41" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="C41" s="13" t="s">
-        <v>227</v>
-      </c>
       <c r="D41" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="F41" s="10" t="s">
         <v>15</v>
@@ -3132,10 +3288,10 @@
         <v>15</v>
       </c>
       <c r="H41" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="I41" s="10" t="s">
-        <v>187</v>
+        <v>143</v>
+      </c>
+      <c r="I41" s="12" t="s">
+        <v>186</v>
       </c>
       <c r="J41" s="14" t="s">
         <v>15</v>
@@ -3143,24 +3299,28 @@
       <c r="K41" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="L41" s="13"/>
-      <c r="M41" s="13"/>
+      <c r="L41" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="M41" s="15" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="42" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B42" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="C42" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="C42" s="13" t="s">
-        <v>227</v>
-      </c>
       <c r="D42" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="F42" s="14" t="s">
         <v>15</v>
@@ -3169,9 +3329,9 @@
         <v>15</v>
       </c>
       <c r="H42" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="I42" s="9">
+        <v>144</v>
+      </c>
+      <c r="I42" s="16">
         <v>12</v>
       </c>
       <c r="J42" s="14" t="s">
@@ -3180,25 +3340,29 @@
       <c r="K42" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="L42" s="9"/>
-      <c r="M42" s="9"/>
+      <c r="L42" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="M42" s="15" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="43" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B43" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="C43" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="C43" s="13" t="s">
+      <c r="D43" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E43" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="D43" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="E43" s="13" t="s">
-        <v>236</v>
-      </c>
       <c r="F43" s="10" t="s">
         <v>14</v>
       </c>
@@ -3206,10 +3370,10 @@
         <v>15</v>
       </c>
       <c r="H43" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="I43" s="10" t="s">
-        <v>188</v>
+        <v>145</v>
+      </c>
+      <c r="I43" s="12" t="s">
+        <v>187</v>
       </c>
       <c r="J43" s="14" t="s">
         <v>15</v>
@@ -3217,21 +3381,25 @@
       <c r="K43" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="L43" s="13"/>
-      <c r="M43" s="13"/>
+      <c r="L43" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="M43" s="15" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="44" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B44" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="C44" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="C44" s="13" t="s">
-        <v>227</v>
-      </c>
       <c r="D44" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E44" s="14" t="s">
         <v>60</v>
@@ -3243,9 +3411,9 @@
         <v>15</v>
       </c>
       <c r="H44" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="I44" s="9">
+        <v>146</v>
+      </c>
+      <c r="I44" s="16">
         <v>52</v>
       </c>
       <c r="J44" s="14" t="s">
@@ -3254,24 +3422,28 @@
       <c r="K44" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="L44" s="9"/>
-      <c r="M44" s="9"/>
+      <c r="L44" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="M44" s="15" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="45" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B45" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="C45" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="C45" s="13" t="s">
-        <v>227</v>
-      </c>
       <c r="D45" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E45" s="13" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="F45" s="10" t="s">
         <v>14</v>
@@ -3280,10 +3452,10 @@
         <v>15</v>
       </c>
       <c r="H45" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="I45" s="10" t="s">
-        <v>189</v>
+        <v>147</v>
+      </c>
+      <c r="I45" s="12" t="s">
+        <v>188</v>
       </c>
       <c r="J45" s="14" t="s">
         <v>15</v>
@@ -3291,21 +3463,25 @@
       <c r="K45" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="L45" s="13"/>
-      <c r="M45" s="13"/>
+      <c r="L45" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="M45" s="15" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="46" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B46" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="C46" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="C46" s="13" t="s">
-        <v>227</v>
-      </c>
       <c r="D46" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E46" s="14" t="s">
         <v>69</v>
@@ -3317,10 +3493,10 @@
         <v>15</v>
       </c>
       <c r="H46" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="I46" s="16" t="s">
-        <v>190</v>
+        <v>148</v>
+      </c>
+      <c r="I46" s="21" t="s">
+        <v>189</v>
       </c>
       <c r="J46" s="14" t="s">
         <v>15</v>
@@ -3328,21 +3504,25 @@
       <c r="K46" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="L46" s="9"/>
-      <c r="M46" s="9"/>
+      <c r="L46" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="M46" s="15" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="47" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B47" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="C47" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="C47" s="13" t="s">
-        <v>227</v>
-      </c>
       <c r="D47" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E47" s="10" t="s">
         <v>69</v>
@@ -3354,10 +3534,10 @@
         <v>15</v>
       </c>
       <c r="H47" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="I47" s="16" t="s">
-        <v>191</v>
+        <v>149</v>
+      </c>
+      <c r="I47" s="21" t="s">
+        <v>190</v>
       </c>
       <c r="J47" s="14" t="s">
         <v>15</v>
@@ -3365,21 +3545,25 @@
       <c r="K47" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="L47" s="13"/>
-      <c r="M47" s="13"/>
+      <c r="L47" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="M47" s="15" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="48" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A48" s="14" t="s">
+      <c r="A48" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="B48" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="B48" s="14" t="s">
+      <c r="C48" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="C48" s="9" t="s">
-        <v>228</v>
-      </c>
       <c r="D48" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E48" s="14" t="s">
         <v>57</v>
@@ -3391,69 +3575,77 @@
         <v>14</v>
       </c>
       <c r="H48" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="I48" s="16">
+        <v>17297</v>
+      </c>
+      <c r="J48" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="K48" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="L48" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="M48" s="15" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A49" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="B49" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E49" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="F49" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G49" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H49" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="I48" s="9">
-        <v>17297</v>
-      </c>
-      <c r="J48" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="K48" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="L48" s="9"/>
-      <c r="M48" s="9"/>
-    </row>
-    <row r="49" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A49" s="14" t="s">
+      <c r="I49" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="J49" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="K49" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="L49" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="M49" s="15" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A50" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="B50" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="B49" s="14" t="s">
+      <c r="C50" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="C49" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="D49" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="E49" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="F49" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G49" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="H49" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="I49" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="J49" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="K49" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="L49" s="13"/>
-      <c r="M49" s="13"/>
-    </row>
-    <row r="50" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A50" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="B50" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>228</v>
-      </c>
       <c r="D50" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E50" s="14" t="s">
         <v>57</v>
@@ -3465,291 +3657,323 @@
         <v>15</v>
       </c>
       <c r="H50" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="I50" s="16">
+        <v>99900</v>
+      </c>
+      <c r="J50" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="K50" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="L50" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="M50" s="15" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A51" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="E51" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="F51" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G51" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H51" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="I50" s="9">
-        <v>99900</v>
-      </c>
-      <c r="J50" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="K50" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="L50" s="9"/>
-      <c r="M50" s="9"/>
-    </row>
-    <row r="51" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A51" s="10" t="s">
+      <c r="I51" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="J51" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="K51" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="L51" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="M51" s="15" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A52" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="B52" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="B51" s="10" t="s">
+      <c r="C52" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="C51" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="D51" s="10" t="s">
+      <c r="D52" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="E51" s="13" t="s">
-        <v>230</v>
-      </c>
-      <c r="F51" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G51" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="H51" s="10" t="s">
+      <c r="E52" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="F52" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G52" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H52" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="I51" s="10" t="s">
+      <c r="I52" s="18" t="s">
         <v>173</v>
       </c>
-      <c r="J51" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="K51" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="L51" s="13"/>
-      <c r="M51" s="13"/>
-    </row>
-    <row r="52" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A52" s="14" t="s">
+      <c r="J52" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="K52" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="L52" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="M52" s="15" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A53" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="B53" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="B52" s="14" t="s">
+      <c r="C53" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="C52" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="D52" s="14" t="s">
+      <c r="D53" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E53" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="F53" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G53" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H53" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="I53" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="J53" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="K53" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="L53" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="M53" s="15" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A54" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="B54" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D54" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="F54" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G54" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H54" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="I54" s="16">
+        <v>11</v>
+      </c>
+      <c r="J54" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="K54" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="L54" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="M54" s="15" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A55" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="B55" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D55" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="E52" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="F52" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G52" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="H52" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="I52" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="J52" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="K52" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="L52" s="9"/>
-      <c r="M52" s="9"/>
-    </row>
-    <row r="53" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A53" s="10" t="s">
+      <c r="E55" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="F55" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G55" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H55" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="I55" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="J55" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="K55" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="L55" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="M55" s="15" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A56" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="B56" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="B53" s="10" t="s">
+      <c r="C56" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="C53" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="D53" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="E53" s="13" t="s">
-        <v>232</v>
-      </c>
-      <c r="F53" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G53" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="H53" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="I53" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="J53" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="K53" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="L53" s="13"/>
-      <c r="M53" s="13"/>
-    </row>
-    <row r="54" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A54" s="14" t="s">
+      <c r="D56" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="F56" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G56" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H56" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="I56" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="J56" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="K56" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="L56" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="M56" s="15" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A57" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="B57" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="B54" s="14" t="s">
+      <c r="C57" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="C54" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="D54" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="E54" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="F54" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G54" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="H54" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="I54" s="9">
-        <v>11</v>
-      </c>
-      <c r="J54" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="K54" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="L54" s="9"/>
-      <c r="M54" s="9"/>
-    </row>
-    <row r="55" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A55" s="14" t="s">
+      <c r="D57" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E57" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="F57" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G57" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H57" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="I57" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="J57" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="K57" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="L57" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="M57" s="15" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A58" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="B58" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="B55" s="14" t="s">
+      <c r="C58" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="C55" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="D55" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="E55" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="F55" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G55" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="H55" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="I55" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="J55" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="K55" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="L55" s="13"/>
-      <c r="M55" s="13"/>
-    </row>
-    <row r="56" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A56" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="B56" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="C56" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="D56" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="E56" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="F56" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G56" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="H56" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="I56" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="J56" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="K56" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="L56" s="9"/>
-      <c r="M56" s="9"/>
-    </row>
-    <row r="57" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A57" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="B57" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="C57" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="D57" s="10" t="s">
+      <c r="D58" s="14" t="s">
         <v>105</v>
-      </c>
-      <c r="E57" s="13" t="s">
-        <v>230</v>
-      </c>
-      <c r="F57" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G57" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="H57" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="I57" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="J57" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="K57" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="L57" s="13"/>
-      <c r="M57" s="13"/>
-    </row>
-    <row r="58" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A58" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="B58" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="C58" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="D58" s="14" t="s">
-        <v>106</v>
       </c>
       <c r="E58" s="14" t="s">
         <v>69</v>
@@ -3761,10 +3985,10 @@
         <v>15</v>
       </c>
       <c r="H58" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="I58" s="16" t="s">
-        <v>179</v>
+        <v>160</v>
+      </c>
+      <c r="I58" s="21" t="s">
+        <v>178</v>
       </c>
       <c r="J58" s="14" t="s">
         <v>15</v>
@@ -3772,21 +3996,25 @@
       <c r="K58" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="L58" s="9"/>
-      <c r="M58" s="9"/>
+      <c r="L58" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="M58" s="15" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="59" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A59" s="10" t="s">
-        <v>70</v>
+      <c r="A59" s="13" t="s">
+        <v>251</v>
       </c>
       <c r="B59" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>229</v>
+        <v>250</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E59" s="10" t="s">
         <v>57</v>
@@ -3798,9 +4026,9 @@
         <v>14</v>
       </c>
       <c r="H59" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="I59" s="13">
+        <v>161</v>
+      </c>
+      <c r="I59" s="11">
         <v>822950</v>
       </c>
       <c r="J59" s="10" t="s">
@@ -3809,21 +4037,25 @@
       <c r="K59" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="L59" s="13"/>
-      <c r="M59" s="13"/>
+      <c r="L59" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="M59" s="15" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="60" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A60" s="10" t="s">
-        <v>70</v>
+      <c r="A60" s="13" t="s">
+        <v>251</v>
       </c>
       <c r="B60" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>229</v>
+        <v>250</v>
       </c>
       <c r="D60" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E60" s="14" t="s">
         <v>57</v>
@@ -3835,214 +4067,238 @@
         <v>15</v>
       </c>
       <c r="H60" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="I60" s="16">
+        <v>3586</v>
+      </c>
+      <c r="J60" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="K60" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="L60" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="M60" s="15" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A61" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="B61" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C61" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E61" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="F61" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G61" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H61" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="I60" s="9">
-        <v>3586</v>
-      </c>
-      <c r="J60" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="K60" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="L60" s="9"/>
-      <c r="M60" s="9"/>
-    </row>
-    <row r="61" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A61" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="B61" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="C61" s="13" t="s">
-        <v>229</v>
-      </c>
-      <c r="D61" s="10" t="s">
+      <c r="I61" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="J61" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="K61" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="L61" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="M61" s="15" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A62" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="B62" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C62" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="D62" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="E61" s="13" t="s">
-        <v>230</v>
-      </c>
-      <c r="F61" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G61" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="H61" s="10" t="s">
+      <c r="E62" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="F62" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G62" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H62" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="I61" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="J61" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="K61" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="L61" s="13"/>
-      <c r="M61" s="13"/>
-    </row>
-    <row r="62" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A62" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="B62" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="C62" s="13" t="s">
-        <v>229</v>
-      </c>
-      <c r="D62" s="14" t="s">
+      <c r="I62" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="J62" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="K62" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="L62" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="M62" s="15" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A63" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="B63" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C63" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="F63" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G63" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H63" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="I63" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="J63" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="K63" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="L63" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="M63" s="15" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A64" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="B64" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C64" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="D64" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="E62" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="F62" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G62" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="H62" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="I62" s="13" t="s">
+      <c r="E64" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="F64" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G64" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H64" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="I64" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="J64" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="K64" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="L64" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="M64" s="15" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A65" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="B65" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C65" s="13" t="s">
         <v>250</v>
       </c>
-      <c r="J62" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="K62" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="L62" s="9"/>
-      <c r="M62" s="9"/>
-    </row>
-    <row r="63" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A63" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="B63" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="C63" s="13" t="s">
-        <v>229</v>
-      </c>
-      <c r="D63" s="10" t="s">
+      <c r="D65" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="E63" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="F63" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G63" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="H63" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="I63" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="J63" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="K63" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="L63" s="13"/>
-      <c r="M63" s="13"/>
-    </row>
-    <row r="64" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A64" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="B64" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="C64" s="13" t="s">
-        <v>229</v>
-      </c>
-      <c r="D64" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="E64" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="F64" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="G64" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="H64" s="14" t="s">
+      <c r="E65" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="F65" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G65" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H65" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="I64" s="10" t="s">
+      <c r="I65" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="J64" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="K64" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="L64" s="9"/>
-      <c r="M64" s="9"/>
-    </row>
-    <row r="65" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A65" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="B65" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="C65" s="13" t="s">
-        <v>229</v>
-      </c>
-      <c r="D65" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="E65" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="F65" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G65" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="H65" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="I65" s="10" t="s">
-        <v>182</v>
-      </c>
       <c r="J65" s="14" t="s">
         <v>15</v>
       </c>
       <c r="K65" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="L65" s="13"/>
-      <c r="M65" s="13"/>
+      <c r="L65" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="M65" s="15" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="66" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A66" s="10" t="s">
-        <v>70</v>
+      <c r="A66" s="13" t="s">
+        <v>251</v>
       </c>
       <c r="B66" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>229</v>
+        <v>250</v>
       </c>
       <c r="D66" s="14" t="s">
         <v>47</v>
@@ -4057,515 +4313,109 @@
         <v>15</v>
       </c>
       <c r="H66" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="I66" s="16">
+        <v>12802</v>
+      </c>
+      <c r="J66" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="K66" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="L66" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="M66" s="15" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A67" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="B67" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C67" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="D67" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="E67" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="F67" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G67" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H67" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="I66" s="9">
-        <v>12802</v>
-      </c>
-      <c r="J66" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="K66" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="L66" s="9"/>
-      <c r="M66" s="9"/>
-    </row>
-    <row r="67" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A67" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="B67" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="C67" s="13" t="s">
-        <v>229</v>
-      </c>
-      <c r="D67" s="10" t="s">
+      <c r="I67" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="J67" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="K67" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="L67" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="M67" s="15" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A68" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="B68" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C68" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="D68" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="E67" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="F67" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G67" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="H67" s="10" t="s">
+      <c r="E68" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="F68" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G68" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H68" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="I67" s="10" t="s">
+      <c r="I68" s="18" t="s">
         <v>183</v>
       </c>
-      <c r="J67" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="K67" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="L67" s="13"/>
-      <c r="M67" s="13"/>
-    </row>
-    <row r="68" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A68" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="B68" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="C68" s="13" t="s">
-        <v>229</v>
-      </c>
-      <c r="D68" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="E68" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="F68" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G68" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="H68" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="I68" s="14" t="s">
-        <v>184</v>
-      </c>
       <c r="J68" s="14" t="s">
         <v>15</v>
       </c>
       <c r="K68" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="L68" s="9"/>
-      <c r="M68" s="9"/>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A77" s="19" t="s">
-        <v>251</v>
-      </c>
-      <c r="B77" s="20"/>
-      <c r="C77" s="20"/>
-      <c r="D77" s="20"/>
-      <c r="E77" s="20"/>
-      <c r="F77" s="21"/>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A78" s="22"/>
-      <c r="B78" s="23"/>
-      <c r="C78" s="23"/>
-      <c r="D78" s="23"/>
-      <c r="E78" s="23"/>
-      <c r="F78" s="24"/>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A79" s="25"/>
-      <c r="B79" s="26"/>
-      <c r="C79" s="26"/>
-      <c r="D79" s="26"/>
-      <c r="E79" s="26"/>
-      <c r="F79" s="27"/>
-    </row>
-    <row r="80" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A80" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B80" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C80" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D80" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E80" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F80" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A81" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B81" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C81" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="D81" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="E81" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="F81" s="8" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A82" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="B82" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C82" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="D82" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="E82" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="F82" s="8" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A83" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B83" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C83" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="D83" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="E83" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="F83" s="8" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A84" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="B84" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="C84" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="D84" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="E84" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="F84" s="8" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A85" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="B85" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="C85" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="D85" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="E85" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F85" s="8" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A86" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="B86" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C86" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D86" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="E86" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F86" s="8" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A87" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="B87" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="C87" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="D87" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="E87" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F87" s="8" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A88" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="B88" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="C88" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="D88" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="E88" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="F88" s="8" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A90" s="30" t="s">
-        <v>253</v>
-      </c>
-      <c r="B90" s="30"/>
-      <c r="C90" s="30"/>
-      <c r="D90" s="30"/>
-      <c r="E90" s="30"/>
-      <c r="F90" s="30"/>
-      <c r="G90" s="30"/>
-      <c r="H90" s="30"/>
-      <c r="I90" s="30"/>
-      <c r="J90" s="30"/>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A91" s="30"/>
-      <c r="B91" s="30"/>
-      <c r="C91" s="30"/>
-      <c r="D91" s="30"/>
-      <c r="E91" s="30"/>
-      <c r="F91" s="30"/>
-      <c r="G91" s="30"/>
-      <c r="H91" s="30"/>
-      <c r="I91" s="30"/>
-      <c r="J91" s="30"/>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A92" s="30"/>
-      <c r="B92" s="30"/>
-      <c r="C92" s="30"/>
-      <c r="D92" s="30"/>
-      <c r="E92" s="30"/>
-      <c r="F92" s="30"/>
-      <c r="G92" s="30"/>
-      <c r="H92" s="30"/>
-      <c r="I92" s="30"/>
-      <c r="J92" s="30"/>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A93" s="30"/>
-      <c r="B93" s="30"/>
-      <c r="C93" s="30"/>
-      <c r="D93" s="30"/>
-      <c r="E93" s="30"/>
-      <c r="F93" s="30"/>
-      <c r="G93" s="30"/>
-      <c r="H93" s="30"/>
-      <c r="I93" s="30"/>
-      <c r="J93" s="30"/>
-    </row>
-    <row r="94" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A94" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G94" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H94" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I94" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J94" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>14</v>
-      </c>
-      <c r="B95" t="s">
-        <v>53</v>
-      </c>
-      <c r="C95" t="s">
-        <v>46</v>
-      </c>
-      <c r="D95" t="s">
-        <v>207</v>
-      </c>
-      <c r="E95" t="s">
-        <v>221</v>
-      </c>
-      <c r="F95" t="s">
-        <v>208</v>
-      </c>
-      <c r="G95" t="s">
-        <v>209</v>
-      </c>
-      <c r="H95" t="s">
-        <v>211</v>
-      </c>
-      <c r="I95" t="s">
-        <v>213</v>
-      </c>
-      <c r="J95" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>14</v>
-      </c>
-      <c r="B96" t="s">
-        <v>105</v>
-      </c>
-      <c r="C96" t="s">
-        <v>99</v>
-      </c>
-      <c r="D96" t="s">
-        <v>207</v>
-      </c>
-      <c r="E96" t="s">
-        <v>221</v>
-      </c>
-      <c r="F96" t="s">
-        <v>208</v>
-      </c>
-      <c r="G96" t="s">
-        <v>210</v>
-      </c>
-      <c r="H96" t="s">
-        <v>212</v>
-      </c>
-      <c r="I96" t="s">
-        <v>213</v>
-      </c>
-      <c r="J96" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>14</v>
-      </c>
-      <c r="B97" t="s">
-        <v>106</v>
-      </c>
-      <c r="C97" t="s">
-        <v>99</v>
-      </c>
-      <c r="D97" t="s">
-        <v>207</v>
-      </c>
-      <c r="E97" t="s">
-        <v>221</v>
-      </c>
-      <c r="F97" t="s">
-        <v>208</v>
-      </c>
-      <c r="G97" t="s">
-        <v>210</v>
-      </c>
-      <c r="H97" t="s">
-        <v>212</v>
-      </c>
-      <c r="I97" t="s">
-        <v>213</v>
-      </c>
-      <c r="J97" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
-        <v>15</v>
-      </c>
-      <c r="B98" t="s">
-        <v>77</v>
-      </c>
-      <c r="C98" t="s">
-        <v>72</v>
-      </c>
-      <c r="D98" t="s">
-        <v>215</v>
-      </c>
-      <c r="E98" t="s">
-        <v>32</v>
-      </c>
-      <c r="F98" t="s">
-        <v>216</v>
-      </c>
-      <c r="G98" t="s">
-        <v>219</v>
-      </c>
-      <c r="H98" t="s">
-        <v>220</v>
-      </c>
-      <c r="I98" t="s">
-        <v>218</v>
-      </c>
-      <c r="J98" t="s">
-        <v>217</v>
+      <c r="L68" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="M68" s="15" t="s">
+        <v>245</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="1">
     <mergeCell ref="A1:M5"/>
-    <mergeCell ref="A77:F79"/>
-    <mergeCell ref="A90:J93"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I64" r:id="rId1" xr:uid="{6E844592-1882-4B6A-913D-72FF8477332F}"/>
@@ -4577,6 +4427,480 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFBF3CF3-1981-4813-B4F9-E4FAE11A273B}">
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="72.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A1" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="26"/>
+    </row>
+    <row r="2" spans="1:6" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A2" s="27"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="29"/>
+    </row>
+    <row r="3" spans="1:6" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A3" s="30"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="32"/>
+    </row>
+    <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>205</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C9E258A-442F-4258-A6B5-15D002A789BC}">
+  <dimension ref="A1:J9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="70.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="103.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="56.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="163.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="51.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="33.75" x14ac:dyDescent="0.5">
+      <c r="A1" s="33" t="s">
+        <v>244</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+    </row>
+    <row r="2" spans="1:10" ht="33.75" x14ac:dyDescent="0.5">
+      <c r="A2" s="33"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+    </row>
+    <row r="3" spans="1:10" ht="33.75" x14ac:dyDescent="0.5">
+      <c r="A3" s="33"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+    </row>
+    <row r="4" spans="1:10" ht="33.75" x14ac:dyDescent="0.5">
+      <c r="A4" s="33"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+    </row>
+    <row r="5" spans="1:10" ht="93.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" t="s">
+        <v>206</v>
+      </c>
+      <c r="E6" t="s">
+        <v>220</v>
+      </c>
+      <c r="F6" t="s">
+        <v>207</v>
+      </c>
+      <c r="G6" t="s">
+        <v>208</v>
+      </c>
+      <c r="H6" t="s">
+        <v>210</v>
+      </c>
+      <c r="I6" t="s">
+        <v>212</v>
+      </c>
+      <c r="J6" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" t="s">
+        <v>206</v>
+      </c>
+      <c r="E7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F7" t="s">
+        <v>207</v>
+      </c>
+      <c r="G7" t="s">
+        <v>209</v>
+      </c>
+      <c r="H7" t="s">
+        <v>211</v>
+      </c>
+      <c r="I7" t="s">
+        <v>212</v>
+      </c>
+      <c r="J7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" t="s">
+        <v>206</v>
+      </c>
+      <c r="E8" t="s">
+        <v>220</v>
+      </c>
+      <c r="F8" t="s">
+        <v>207</v>
+      </c>
+      <c r="G8" t="s">
+        <v>209</v>
+      </c>
+      <c r="H8" t="s">
+        <v>211</v>
+      </c>
+      <c r="I8" t="s">
+        <v>212</v>
+      </c>
+      <c r="J8" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" t="s">
+        <v>214</v>
+      </c>
+      <c r="E9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" t="s">
+        <v>215</v>
+      </c>
+      <c r="G9" t="s">
+        <v>218</v>
+      </c>
+      <c r="H9" t="s">
+        <v>219</v>
+      </c>
+      <c r="I9" t="s">
+        <v>217</v>
+      </c>
+      <c r="J9" t="s">
+        <v>216</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:J4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -4675,7 +4999,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>

--- a/Metadata.xlsx
+++ b/Metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eslamelassal\Downloads\udacity_data_architect-main\udacity_data_architect-main\4. Data Governance\project_work\Data-Governance-at-SneakerPark\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D84B657A-8E4E-4E6F-A418-76E3113168D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A59F3E-EE35-4DD2-8A6D-0555B174FD06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -433,7 +433,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="255">
   <si>
     <t>Entity</t>
   </si>
@@ -1073,9 +1073,6 @@
 </t>
   </si>
   <si>
-    <t>Red Flag: Less than 80% of the records have this information, Yellow Flag: Less than 90% of the records have the info, Green Flag: At least 95% of the records have this information complete</t>
-  </si>
-  <si>
     <t>% of the records that doesn't have a NULL value in this field</t>
   </si>
   <si>
@@ -1088,9 +1085,6 @@
     <t>% of the orders that was sent to the right customer address</t>
   </si>
   <si>
-    <t>Red: At least 90% of our orders arrive to the right place, Yellow: At least 95% of our orders arrive to the right place, Green: At least 98% of our orders arrive to the right place</t>
-  </si>
-  <si>
     <t>address= 4th Street 201, when it should have been: 4th Street 21</t>
   </si>
   <si>
@@ -1197,6 +1191,15 @@
   </si>
   <si>
     <t>Creditcards</t>
+  </si>
+  <si>
+    <t>the address must be presented</t>
+  </si>
+  <si>
+    <t xml:space="preserve">must have at least estimated arrival date </t>
+  </si>
+  <si>
+    <t>the status must be presented</t>
   </si>
 </sst>
 </file>
@@ -1427,7 +1430,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1514,6 +1517,8 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1732,7 +1737,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37B95F04-04F8-462C-B899-64D442077A23}">
   <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="A90" sqref="A90:J98"/>
     </sheetView>
   </sheetViews>
@@ -1755,7 +1760,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
@@ -1906,10 +1911,10 @@
         <v>15</v>
       </c>
       <c r="L7" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="M7" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15" x14ac:dyDescent="0.25">
@@ -2029,10 +2034,10 @@
         <v>15</v>
       </c>
       <c r="L10" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="M10" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="15" x14ac:dyDescent="0.25">
@@ -2070,10 +2075,10 @@
         <v>15</v>
       </c>
       <c r="L11" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="M11" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="15" x14ac:dyDescent="0.25">
@@ -2111,10 +2116,10 @@
         <v>15</v>
       </c>
       <c r="L12" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="M12" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="15" x14ac:dyDescent="0.25">
@@ -2131,7 +2136,7 @@
         <v>53</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>15</v>
@@ -2143,7 +2148,7 @@
         <v>118</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="J13" s="14" t="s">
         <v>15</v>
@@ -2152,10 +2157,10 @@
         <v>15</v>
       </c>
       <c r="L13" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="M13" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="15" x14ac:dyDescent="0.25">
@@ -2172,7 +2177,7 @@
         <v>54</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F14" s="14" t="s">
         <v>14</v>
@@ -2193,10 +2198,10 @@
         <v>15</v>
       </c>
       <c r="L14" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="M14" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="15" x14ac:dyDescent="0.25">
@@ -2225,7 +2230,7 @@
         <v>120</v>
       </c>
       <c r="I15" s="17" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J15" s="14" t="s">
         <v>15</v>
@@ -2234,10 +2239,10 @@
         <v>15</v>
       </c>
       <c r="L15" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="M15" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="15" x14ac:dyDescent="0.25">
@@ -2254,7 +2259,7 @@
         <v>56</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F16" s="14" t="s">
         <v>15</v>
@@ -2275,21 +2280,21 @@
         <v>15</v>
       </c>
       <c r="L16" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="M16" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>45</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D17" s="13" t="s">
         <v>47</v>
@@ -2324,13 +2329,13 @@
     </row>
     <row r="18" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>45</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>62</v>
@@ -2365,13 +2370,13 @@
     </row>
     <row r="19" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>45</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D19" s="13" t="s">
         <v>63</v>
@@ -2398,15 +2403,15 @@
         <v>15</v>
       </c>
       <c r="L19" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="M19" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>45</v>
@@ -2439,15 +2444,15 @@
         <v>15</v>
       </c>
       <c r="L20" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="M20" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>45</v>
@@ -2488,7 +2493,7 @@
     </row>
     <row r="22" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>45</v>
@@ -2500,7 +2505,7 @@
         <v>66</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F22" s="14" t="s">
         <v>14</v>
@@ -2512,7 +2517,7 @@
         <v>126</v>
       </c>
       <c r="I22" s="16" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="J22" s="14" t="s">
         <v>15</v>
@@ -2521,15 +2526,15 @@
         <v>15</v>
       </c>
       <c r="L22" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="M22" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>45</v>
@@ -2541,7 +2546,7 @@
         <v>67</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F23" s="10" t="s">
         <v>15</v>
@@ -2562,15 +2567,15 @@
         <v>15</v>
       </c>
       <c r="L23" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="M23" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B24" s="9" t="s">
         <v>45</v>
@@ -2594,7 +2599,7 @@
         <v>128</v>
       </c>
       <c r="I24" s="19" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J24" s="14" t="s">
         <v>15</v>
@@ -2603,15 +2608,15 @@
         <v>15</v>
       </c>
       <c r="L24" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="M24" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>70</v>
@@ -2644,15 +2649,15 @@
         <v>15</v>
       </c>
       <c r="L25" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="M25" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>70</v>
@@ -2664,7 +2669,7 @@
         <v>73</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F26" s="14" t="s">
         <v>14</v>
@@ -2676,7 +2681,7 @@
         <v>130</v>
       </c>
       <c r="I26" s="16" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="J26" s="14" t="s">
         <v>15</v>
@@ -2685,15 +2690,15 @@
         <v>15</v>
       </c>
       <c r="L26" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="M26" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>70</v>
@@ -2705,7 +2710,7 @@
         <v>74</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F27" s="10" t="s">
         <v>14</v>
@@ -2717,7 +2722,7 @@
         <v>131</v>
       </c>
       <c r="I27" s="11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="J27" s="14" t="s">
         <v>15</v>
@@ -2726,15 +2731,15 @@
         <v>15</v>
       </c>
       <c r="L27" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="M27" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>70</v>
@@ -2746,7 +2751,7 @@
         <v>75</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F28" s="14" t="s">
         <v>14</v>
@@ -2758,7 +2763,7 @@
         <v>132</v>
       </c>
       <c r="I28" s="20" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="J28" s="14" t="s">
         <v>15</v>
@@ -2767,15 +2772,15 @@
         <v>15</v>
       </c>
       <c r="L28" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="M28" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B29" s="10" t="s">
         <v>70</v>
@@ -2787,7 +2792,7 @@
         <v>76</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F29" s="10" t="s">
         <v>14</v>
@@ -2799,7 +2804,7 @@
         <v>133</v>
       </c>
       <c r="I29" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="J29" s="14" t="s">
         <v>15</v>
@@ -2808,15 +2813,15 @@
         <v>15</v>
       </c>
       <c r="L29" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="M29" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B30" s="10" t="s">
         <v>70</v>
@@ -2828,7 +2833,7 @@
         <v>77</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F30" s="14" t="s">
         <v>14</v>
@@ -2849,15 +2854,15 @@
         <v>15</v>
       </c>
       <c r="L30" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="M30" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B31" s="10" t="s">
         <v>70</v>
@@ -2890,15 +2895,15 @@
         <v>15</v>
       </c>
       <c r="L31" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="M31" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B32" s="10" t="s">
         <v>70</v>
@@ -2910,7 +2915,7 @@
         <v>79</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F32" s="14" t="s">
         <v>14</v>
@@ -2931,15 +2936,15 @@
         <v>15</v>
       </c>
       <c r="L32" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="M32" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B33" s="10" t="s">
         <v>70</v>
@@ -2972,15 +2977,15 @@
         <v>15</v>
       </c>
       <c r="L33" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="M33" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B34" s="10" t="s">
         <v>70</v>
@@ -3054,10 +3059,10 @@
         <v>15</v>
       </c>
       <c r="L35" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="M35" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="15" x14ac:dyDescent="0.25">
@@ -3156,7 +3161,7 @@
         <v>86</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F38" s="14" t="s">
         <v>15</v>
@@ -3177,10 +3182,10 @@
         <v>15</v>
       </c>
       <c r="L38" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="M38" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="15" x14ac:dyDescent="0.25">
@@ -3197,7 +3202,7 @@
         <v>87</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F39" s="10" t="s">
         <v>15</v>
@@ -3209,7 +3214,7 @@
         <v>141</v>
       </c>
       <c r="I39" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J39" s="14" t="s">
         <v>15</v>
@@ -3218,10 +3223,10 @@
         <v>15</v>
       </c>
       <c r="L39" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="M39" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="15" x14ac:dyDescent="0.25">
@@ -3238,7 +3243,7 @@
         <v>88</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F40" s="14" t="s">
         <v>15</v>
@@ -3259,10 +3264,10 @@
         <v>15</v>
       </c>
       <c r="L40" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="M40" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="15" x14ac:dyDescent="0.25">
@@ -3279,7 +3284,7 @@
         <v>89</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F41" s="10" t="s">
         <v>15</v>
@@ -3300,10 +3305,10 @@
         <v>15</v>
       </c>
       <c r="L41" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="M41" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="15" x14ac:dyDescent="0.25">
@@ -3320,7 +3325,7 @@
         <v>90</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F42" s="14" t="s">
         <v>15</v>
@@ -3341,10 +3346,10 @@
         <v>15</v>
       </c>
       <c r="L42" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="M42" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="15" x14ac:dyDescent="0.25">
@@ -3361,7 +3366,7 @@
         <v>91</v>
       </c>
       <c r="E43" s="13" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F43" s="10" t="s">
         <v>14</v>
@@ -3382,10 +3387,10 @@
         <v>15</v>
       </c>
       <c r="L43" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="M43" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="15" x14ac:dyDescent="0.25">
@@ -3423,10 +3428,10 @@
         <v>15</v>
       </c>
       <c r="L44" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="M44" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="15" x14ac:dyDescent="0.25">
@@ -3443,7 +3448,7 @@
         <v>93</v>
       </c>
       <c r="E45" s="13" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F45" s="10" t="s">
         <v>14</v>
@@ -3464,10 +3469,10 @@
         <v>15</v>
       </c>
       <c r="L45" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="M45" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="15" x14ac:dyDescent="0.25">
@@ -3505,10 +3510,10 @@
         <v>15</v>
       </c>
       <c r="L46" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="M46" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="47" spans="1:13" ht="15" x14ac:dyDescent="0.25">
@@ -3546,15 +3551,15 @@
         <v>15</v>
       </c>
       <c r="L47" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="M47" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B48" s="14" t="s">
         <v>97</v>
@@ -3587,15 +3592,15 @@
         <v>15</v>
       </c>
       <c r="L48" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="M48" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="49" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B49" s="14" t="s">
         <v>97</v>
@@ -3607,7 +3612,7 @@
         <v>100</v>
       </c>
       <c r="E49" s="13" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F49" s="10" t="s">
         <v>14</v>
@@ -3628,15 +3633,15 @@
         <v>15</v>
       </c>
       <c r="L49" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="M49" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B50" s="14" t="s">
         <v>97</v>
@@ -3669,15 +3674,15 @@
         <v>15</v>
       </c>
       <c r="L50" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="M50" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B51" s="10" t="s">
         <v>97</v>
@@ -3689,7 +3694,7 @@
         <v>101</v>
       </c>
       <c r="E51" s="13" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F51" s="10" t="s">
         <v>14</v>
@@ -3710,15 +3715,15 @@
         <v>15</v>
       </c>
       <c r="L51" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="M51" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B52" s="14" t="s">
         <v>97</v>
@@ -3730,7 +3735,7 @@
         <v>102</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F52" s="14" t="s">
         <v>14</v>
@@ -3751,15 +3756,15 @@
         <v>15</v>
       </c>
       <c r="L52" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="M52" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="53" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B53" s="10" t="s">
         <v>97</v>
@@ -3771,7 +3776,7 @@
         <v>88</v>
       </c>
       <c r="E53" s="13" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F53" s="10" t="s">
         <v>14</v>
@@ -3792,15 +3797,15 @@
         <v>15</v>
       </c>
       <c r="L53" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="M53" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="54" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B54" s="14" t="s">
         <v>97</v>
@@ -3812,7 +3817,7 @@
         <v>90</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F54" s="14" t="s">
         <v>14</v>
@@ -3833,15 +3838,15 @@
         <v>15</v>
       </c>
       <c r="L54" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="M54" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="55" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B55" s="14" t="s">
         <v>97</v>
@@ -3853,7 +3858,7 @@
         <v>103</v>
       </c>
       <c r="E55" s="13" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F55" s="10" t="s">
         <v>14</v>
@@ -3874,15 +3879,15 @@
         <v>15</v>
       </c>
       <c r="L55" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="M55" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="56" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B56" s="14" t="s">
         <v>97</v>
@@ -3894,7 +3899,7 @@
         <v>91</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F56" s="14" t="s">
         <v>14</v>
@@ -3915,15 +3920,15 @@
         <v>15</v>
       </c>
       <c r="L56" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="M56" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B57" s="14" t="s">
         <v>97</v>
@@ -3935,7 +3940,7 @@
         <v>104</v>
       </c>
       <c r="E57" s="13" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F57" s="10" t="s">
         <v>15</v>
@@ -3956,15 +3961,15 @@
         <v>15</v>
       </c>
       <c r="L57" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="M57" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="58" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B58" s="14" t="s">
         <v>97</v>
@@ -3997,21 +4002,21 @@
         <v>15</v>
       </c>
       <c r="L58" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="M58" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="59" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="13" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B59" s="14" t="s">
         <v>106</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D59" s="10" t="s">
         <v>108</v>
@@ -4038,21 +4043,21 @@
         <v>15</v>
       </c>
       <c r="L59" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="M59" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="60" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="13" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B60" s="14" t="s">
         <v>106</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D60" s="14" t="s">
         <v>72</v>
@@ -4079,27 +4084,27 @@
         <v>15</v>
       </c>
       <c r="L60" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="M60" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="61" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B61" s="14" t="s">
         <v>106</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D61" s="10" t="s">
         <v>73</v>
       </c>
       <c r="E61" s="13" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F61" s="10" t="s">
         <v>14</v>
@@ -4111,7 +4116,7 @@
         <v>163</v>
       </c>
       <c r="I61" s="11" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="J61" s="14" t="s">
         <v>15</v>
@@ -4120,27 +4125,27 @@
         <v>15</v>
       </c>
       <c r="L61" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="M61" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="62" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="13" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B62" s="14" t="s">
         <v>106</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D62" s="14" t="s">
         <v>74</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F62" s="14" t="s">
         <v>14</v>
@@ -4152,7 +4157,7 @@
         <v>164</v>
       </c>
       <c r="I62" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J62" s="14" t="s">
         <v>15</v>
@@ -4161,27 +4166,27 @@
         <v>15</v>
       </c>
       <c r="L62" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="M62" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="63" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="13" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B63" s="14" t="s">
         <v>106</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D63" s="10" t="s">
         <v>109</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F63" s="10" t="s">
         <v>14</v>
@@ -4202,27 +4207,27 @@
         <v>15</v>
       </c>
       <c r="L63" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="M63" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="64" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B64" s="14" t="s">
         <v>106</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D64" s="14" t="s">
         <v>75</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F64" s="14" t="s">
         <v>15</v>
@@ -4243,27 +4248,27 @@
         <v>15</v>
       </c>
       <c r="L64" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="M64" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="65" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B65" s="14" t="s">
         <v>106</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D65" s="10" t="s">
         <v>110</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F65" s="10" t="s">
         <v>15</v>
@@ -4284,21 +4289,21 @@
         <v>15</v>
       </c>
       <c r="L65" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="M65" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="66" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="13" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B66" s="14" t="s">
         <v>106</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D66" s="14" t="s">
         <v>47</v>
@@ -4325,27 +4330,27 @@
         <v>15</v>
       </c>
       <c r="L66" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="M66" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="67" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="13" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B67" s="14" t="s">
         <v>106</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D67" s="10" t="s">
         <v>111</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F67" s="10" t="s">
         <v>14</v>
@@ -4366,27 +4371,27 @@
         <v>15</v>
       </c>
       <c r="L67" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="M67" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="68" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="13" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B68" s="14" t="s">
         <v>106</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D68" s="14" t="s">
         <v>112</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F68" s="14" t="s">
         <v>14</v>
@@ -4407,10 +4412,10 @@
         <v>15</v>
       </c>
       <c r="L68" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="M68" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -4444,9 +4449,9 @@
     <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -4454,7 +4459,7 @@
       <c r="E1" s="25"/>
       <c r="F1" s="26"/>
     </row>
-    <row r="2" spans="1:6" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="27"/>
       <c r="B2" s="28"/>
       <c r="C2" s="28"/>
@@ -4462,7 +4467,7 @@
       <c r="E2" s="28"/>
       <c r="F2" s="29"/>
     </row>
-    <row r="3" spans="1:6" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="30"/>
       <c r="B3" s="31"/>
       <c r="C3" s="31"/>
@@ -4661,10 +4666,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C9E258A-442F-4258-A6B5-15D002A789BC}">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="I4" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4681,9 +4686,9 @@
     <col min="10" max="10" width="51.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="33.75" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="33" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B1" s="33"/>
       <c r="C1" s="33"/>
@@ -4695,7 +4700,7 @@
       <c r="I1" s="33"/>
       <c r="J1" s="33"/>
     </row>
-    <row r="2" spans="1:10" ht="33.75" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="33"/>
       <c r="B2" s="33"/>
       <c r="C2" s="33"/>
@@ -4707,7 +4712,7 @@
       <c r="I2" s="33"/>
       <c r="J2" s="33"/>
     </row>
-    <row r="3" spans="1:10" ht="33.75" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="33"/>
       <c r="B3" s="33"/>
       <c r="C3" s="33"/>
@@ -4719,7 +4724,7 @@
       <c r="I3" s="33"/>
       <c r="J3" s="33"/>
     </row>
-    <row r="4" spans="1:10" ht="33.75" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="33"/>
       <c r="B4" s="33"/>
       <c r="C4" s="33"/>
@@ -4731,7 +4736,7 @@
       <c r="I4" s="33"/>
       <c r="J4" s="33"/>
     </row>
-    <row r="5" spans="1:10" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
@@ -4777,7 +4782,7 @@
         <v>206</v>
       </c>
       <c r="E6" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F6" t="s">
         <v>207</v>
@@ -4788,11 +4793,11 @@
       <c r="H6" t="s">
         <v>210</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="34" t="s">
+        <v>252</v>
+      </c>
+      <c r="J6" t="s">
         <v>212</v>
-      </c>
-      <c r="J6" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -4809,7 +4814,7 @@
         <v>206</v>
       </c>
       <c r="E7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F7" t="s">
         <v>207</v>
@@ -4820,11 +4825,11 @@
       <c r="H7" t="s">
         <v>211</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="35" t="s">
+        <v>254</v>
+      </c>
+      <c r="J7" t="s">
         <v>212</v>
-      </c>
-      <c r="J7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -4841,7 +4846,7 @@
         <v>206</v>
       </c>
       <c r="E8" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F8" t="s">
         <v>207</v>
@@ -4852,11 +4857,11 @@
       <c r="H8" t="s">
         <v>211</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="35" t="s">
+        <v>253</v>
+      </c>
+      <c r="J8" t="s">
         <v>212</v>
-      </c>
-      <c r="J8" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -4870,26 +4875,41 @@
         <v>71</v>
       </c>
       <c r="D9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E9" t="s">
         <v>32</v>
       </c>
       <c r="F9" t="s">
+        <v>214</v>
+      </c>
+      <c r="G9" t="s">
+        <v>216</v>
+      </c>
+      <c r="H9" t="s">
+        <v>217</v>
+      </c>
+      <c r="I9" t="s">
+        <v>252</v>
+      </c>
+      <c r="J9" t="s">
         <v>215</v>
       </c>
-      <c r="G9" t="s">
-        <v>218</v>
-      </c>
-      <c r="H9" t="s">
-        <v>219</v>
-      </c>
-      <c r="I9" t="s">
-        <v>217</v>
-      </c>
-      <c r="J9" t="s">
-        <v>216</v>
-      </c>
+    </row>
+    <row r="20" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I20" s="34"/>
+    </row>
+    <row r="21" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I21" s="34"/>
+    </row>
+    <row r="22" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I22" s="34"/>
+    </row>
+    <row r="23" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I23" s="34"/>
+    </row>
+    <row r="24" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I24" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="1">
